--- a/SALT/NaCl-PuCl3.xlsx
+++ b/SALT/NaCl-PuCl3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D857AE-6EB5-E145-BD41-0E4C8489C592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA87F7D-877C-A840-B826-C1C6C859B981}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6640" yWindow="4000" windowWidth="27240" windowHeight="16440" xr2:uid="{E495CD70-E4E6-FC4E-AC78-5AE6C84CD047}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79DF1C9-43A0-BE42-A5FB-E1F7E1545A51}">
-  <dimension ref="B2:G6"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,83 +428,145 @@
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <f>E3/SUM(D3:E3)</f>
-        <v>0.1951219512195122</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>0.14285714285714285</v>
+      </c>
       <c r="D3">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <f>D3+3*E3</f>
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G3">
         <f>SUM(D3:F3)</f>
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B6" si="0">E4/SUM(D4:E4)</f>
-        <v>0.35616438356164382</v>
+        <f>E4/SUM(D4:E4)</f>
+        <v>0.1951219512195122</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F6" si="1">D4+3*E4</f>
-        <v>125</v>
+        <f>D4+3*E4</f>
+        <v>114</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G6" si="2">SUM(D4:F4)</f>
-        <v>198</v>
+        <f>SUM(D4:F4)</f>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
+        <f>E5/SUM(D5:E5)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <f>D5+3*E5</f>
+        <v>125</v>
+      </c>
+      <c r="G5">
+        <f>SUM(D5:F5)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B8" si="0">E6/SUM(D6:E6)</f>
+        <v>0.35616438356164382</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F9" si="1">D6+3*E6</f>
+        <v>125</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G9" si="2">SUM(D6:F6)</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>0.59677419354838712</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5">
+      <c r="C7" s="1"/>
+      <c r="D7">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>37</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <f t="shared" si="2"/>
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <f>E6/SUM(D6:E6)</f>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <f>E9/SUM(D9:E9)</f>
         <v>0.8</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6">
+      <c r="C9" s="1"/>
+      <c r="D9">
         <v>11</v>
       </c>
-      <c r="E6">
+      <c r="E9">
         <v>44.000000000000007</v>
       </c>
-      <c r="F6">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>143.00000000000003</v>
       </c>
-      <c r="G6">
+      <c r="G9">
         <f t="shared" si="2"/>
         <v>198.00000000000003</v>
       </c>

--- a/SALT/NaCl-PuCl3.xlsx
+++ b/SALT/NaCl-PuCl3.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA87F7D-877C-A840-B826-C1C6C859B981}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91CDF17-A252-374B-9C96-819B75DA10A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="4000" windowWidth="27240" windowHeight="16440" xr2:uid="{E495CD70-E4E6-FC4E-AC78-5AE6C84CD047}"/>
+    <workbookView xWindow="18120" yWindow="3680" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{E495CD70-E4E6-FC4E-AC78-5AE6C84CD047}"/>
   </bookViews>
   <sheets>
     <sheet name="NaCl-PuCl3" sheetId="2" r:id="rId1"/>
+    <sheet name="PuCl3" sheetId="3" r:id="rId2"/>
+    <sheet name="NaCl-33PuCl3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Na</t>
   </si>
@@ -41,12 +43,30 @@
   <si>
     <t>mol %</t>
   </si>
+  <si>
+    <t>1200 K</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,9 +103,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,6 +122,1923 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16286443332274703"/>
+                  <c:y val="-0.27861424038413107"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.0000E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PuCl3!$G$9:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5088.4479999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5242.633062848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5399.9017251840005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5560.2845176960009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PuCl3!$F$9:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.2005784223169398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8879492930918902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87267933570988998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0124723520412</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-617D-D04D-A9A0-BFDDCC89960A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PuCl3!$F$22:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>1.5577347541011954E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5610463575640966E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99919982957099929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>624.366880702358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.75141836011813</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PuCl3!$H$22:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>537.39659707323221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.88855282938543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-617D-D04D-A9A0-BFDDCC89960A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="300482896"/>
+        <c:axId val="652954096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="300482896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="4000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="652954096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="652954096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300482896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NaCl-33PuCl3'!$G$8:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5710.808631352812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5897.0162207372359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6087.2281217247019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6281.4869333748065</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6479.8352547471623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NaCl-33PuCl3'!$F$8:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.1288213333333292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.91152266666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4534933333333302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.23670133333333401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.925616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51D4-A044-B735-D83AC304D6A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="256849440"/>
+        <c:axId val="309067440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="256849440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309067440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="309067440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256849440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F0533C-FC55-BE49-9F6A-7133B32781BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E77158A-B4C3-2941-B1F2-BCC8C5D085D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,15 +2338,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79DF1C9-43A0-BE42-A5FB-E1F7E1545A51}">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -425,153 +2363,723 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7">
       <c r="B3" s="1">
         <f>E3/SUM(D3:E3)</f>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f>D3+3*E3</f>
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <f>SUM(D3:F3)</f>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="1">
         <f>E4/SUM(D4:E4)</f>
-        <v>0.1951219512195122</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>0.14285714285714285</v>
+      </c>
       <c r="D4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <f>D4+3*E4</f>
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G4">
         <f>SUM(D4:F4)</f>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="1">
         <f>E5/SUM(D5:E5)</f>
-        <v>0.33333333333333331</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <f>D5+3*E5</f>
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G5">
         <f>SUM(D5:F5)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B8" si="0">E6/SUM(D6:E6)</f>
-        <v>0.35616438356164382</v>
+        <f>E6/SUM(D6:E6)</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F9" si="1">D6+3*E6</f>
-        <v>125</v>
+        <f>D6+3*E6</f>
+        <v>120</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G9" si="2">SUM(D6:F6)</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+        <f>SUM(D6:F6)</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.59677419354838712</v>
+        <f t="shared" ref="B7:B9" si="0">E7/SUM(D7:E7)</f>
+        <v>0.35616438356164382</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E7">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
-        <v>136</v>
+        <f t="shared" ref="F7:F10" si="1">D7+3*E7</f>
+        <v>125</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G7:G10" si="2">SUM(D7:F7)</f>
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="1">
-        <f>E9/SUM(D9:E9)</f>
-        <v>0.8</v>
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>44.000000000000007</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>143.00000000000003</v>
+        <v>140</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1">
+        <f>E10/SUM(D10:E10)</f>
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>44.000000000000007</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>143.00000000000003</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
         <v>198.00000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1">
+        <f>E11/SUM(D11:E11)</f>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11" si="3">D11+3*E11</f>
+        <v>120</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11" si="4">SUM(D11:F11)</f>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F3CE6F-A0A5-CD41-97A4-719D12DD7AB8}">
+  <dimension ref="B7:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:11">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="C8">
+        <v>0.95</v>
+      </c>
+      <c r="D8">
+        <v>-698.543926909025</v>
+      </c>
+      <c r="E8">
+        <v>23.876336968368499</v>
+      </c>
+      <c r="F8">
+        <v>38.449851744043599</v>
+      </c>
+      <c r="G8">
+        <f>H8^3</f>
+        <v>4362.7081039999994</v>
+      </c>
+      <c r="H8">
+        <f>17.2*C8</f>
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>-698.88905068204497</v>
+      </c>
+      <c r="E9">
+        <v>23.705240948954501</v>
+      </c>
+      <c r="F9">
+        <v>7.2005784223169398</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G13" si="0">H9^3</f>
+        <v>5088.4479999999994</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H13" si="1">17.2*C9</f>
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="C10">
+        <v>1.01</v>
+      </c>
+      <c r="D10">
+        <v>-698.55676974029802</v>
+      </c>
+      <c r="E10">
+        <v>23.943123762038901</v>
+      </c>
+      <c r="F10">
+        <v>3.8879492930918902</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>5242.633062848</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H11" si="2">17.2*C10</f>
+        <v>17.372</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="C11">
+        <v>1.02</v>
+      </c>
+      <c r="D11">
+        <v>-697.00860582757105</v>
+      </c>
+      <c r="E11">
+        <v>24.108960836325402</v>
+      </c>
+      <c r="F11">
+        <v>0.87267933570988998</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>5399.9017251840005</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>17.544</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="C12">
+        <v>1.03</v>
+      </c>
+      <c r="D12">
+        <v>-695.84681929487601</v>
+      </c>
+      <c r="E12">
+        <v>24.529361350574298</v>
+      </c>
+      <c r="F12">
+        <v>-1.0124723520412</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>5560.2845176960009</v>
+      </c>
+      <c r="H12">
+        <f>17.2*C12</f>
+        <v>17.716000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="C13">
+        <v>1.05</v>
+      </c>
+      <c r="D13">
+        <v>-693.60711165178702</v>
+      </c>
+      <c r="E13">
+        <v>24.134787712611399</v>
+      </c>
+      <c r="F13">
+        <v>-3.8559836933388301</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>5890.5146159999995</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>18.059999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="F16">
+        <f t="array" ref="F16:K16">IFERROR(LINEST(F9:F12,G9:G12^{1,2},TRUE,TRUE),"")</f>
+        <v>1.5577347541011954E-5</v>
+      </c>
+      <c r="G16">
+        <v>-0.18345256922510866</v>
+      </c>
+      <c r="H16">
+        <v>537.39659707323221</v>
+      </c>
+      <c r="I16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18">
+        <f>(-G16+SQRT((G16^2-4*F16*H16)))/2/F16</f>
+        <v>6306.9346413443509</v>
+      </c>
+      <c r="G18" s="2">
+        <f>(-G16-SQRT((G16^2-4*F16*H16)))/2/F16</f>
+        <v>5469.9464189334512</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23" s="2">
+        <f t="array" ref="F23:H28">LINEST(F9:F12,G9:G12^{1,2},TRUE,TRUE)</f>
+        <v>1.5577347541011954E-5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-0.18345256922510866</v>
+      </c>
+      <c r="H23" s="2">
+        <v>537.39659707323221</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24">
+        <v>3.5610463575640966E-6</v>
+      </c>
+      <c r="G24">
+        <v>3.7926144266865469E-2</v>
+      </c>
+      <c r="H24">
+        <v>100.88855282938543</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8">
+      <c r="F25">
+        <v>0.99919982957099929</v>
+      </c>
+      <c r="G25">
+        <v>0.17616063805167811</v>
+      </c>
+      <c r="H25" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8">
+      <c r="F26">
+        <v>624.366880702358</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8">
+      <c r="F27">
+        <v>38.75141836011813</v>
+      </c>
+      <c r="G27">
+        <v>3.1032570398774342E-2</v>
+      </c>
+      <c r="H27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8">
+      <c r="F28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D36F173-B38D-794B-A401-7C4C04E36BC8}">
+  <dimension ref="B7:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="C8">
+        <v>0.93</v>
+      </c>
+      <c r="D8">
+        <v>-559.71669549600006</v>
+      </c>
+      <c r="E8">
+        <v>29.156225599999999</v>
+      </c>
+      <c r="F8">
+        <v>8.1288213333333292</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G12" si="0">H8^3</f>
+        <v>5710.808631352812</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H12" si="1">19.219832*C8</f>
+        <v>17.874443760000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="C9">
+        <v>0.94</v>
+      </c>
+      <c r="D9">
+        <v>-558.965596968</v>
+      </c>
+      <c r="E9">
+        <v>29.224475066666599</v>
+      </c>
+      <c r="F9">
+        <v>4.91152266666667</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>5897.0162207372359</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>18.066642079999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="C10">
+        <v>0.95</v>
+      </c>
+      <c r="D10">
+        <v>-557.36334595066705</v>
+      </c>
+      <c r="E10">
+        <v>29.3031598666667</v>
+      </c>
+      <c r="F10">
+        <v>2.4534933333333302</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>6087.2281217247019</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>18.2588404</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="C11">
+        <v>0.96</v>
+      </c>
+      <c r="D11">
+        <v>-556.26257973066697</v>
+      </c>
+      <c r="E11">
+        <v>29.108755066666699</v>
+      </c>
+      <c r="F11">
+        <v>-0.23670133333333401</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>6281.4869333748065</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>18.45103872</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="C12">
+        <v>0.97</v>
+      </c>
+      <c r="D12">
+        <v>-554.489772893333</v>
+      </c>
+      <c r="E12">
+        <v>28.840091466666699</v>
+      </c>
+      <c r="F12">
+        <v>-1.925616</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>6479.8352547471623</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>18.643237039999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>-550.88857256933295</v>
+      </c>
+      <c r="E13">
+        <v>29.123159733333299</v>
+      </c>
+      <c r="F13">
+        <v>-5.2731960000000004</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G14" si="2">H13^3</f>
+        <v>7099.8432677937917</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H14" si="3">19.219832*C13</f>
+        <v>19.219832</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="C14">
+        <v>1.05</v>
+      </c>
+      <c r="D14">
+        <v>-543.97212908533402</v>
+      </c>
+      <c r="E14">
+        <v>29.1195493333333</v>
+      </c>
+      <c r="F14">
+        <v>-7.3013960000000004</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>8218.9560628797881</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>20.1808236</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" s="2">
+        <f t="array" ref="E17:G21">LINEST(F8:F12,G8:G12^{1,2},TRUE,TRUE)</f>
+        <v>6.1883554879203012E-6</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-8.856250409531996E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>312.05688590291743</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18">
+        <v>1.3917744141491537E-6</v>
+      </c>
+      <c r="F18">
+        <v>1.6970141533334666E-2</v>
+      </c>
+      <c r="G18">
+        <v>51.645110911233076</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19">
+        <v>0.99885024488902752</v>
+      </c>
+      <c r="F19">
+        <v>0.19246891155439483</v>
+      </c>
+      <c r="G19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20">
+        <v>868.75042811867354</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21">
+        <v>64.36447154589456</v>
+      </c>
+      <c r="F21">
+        <v>7.4088563829866921E-2</v>
+      </c>
+      <c r="G21" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24">
+        <f>(-F17+SQRT((F17^2-4*E17*G17)))/2/E17</f>
+        <v>8036.3791976846924</v>
+      </c>
+      <c r="F24" s="2">
+        <f>(-F17-SQRT((F17^2-4*E17*G17)))/2/E17</f>
+        <v>6274.7741076149759</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SALT/NaCl-PuCl3.xlsx
+++ b/SALT/NaCl-PuCl3.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91CDF17-A252-374B-9C96-819B75DA10A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542260A7-A66A-7A49-95C0-7A6B51ABB8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18120" yWindow="3680" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{E495CD70-E4E6-FC4E-AC78-5AE6C84CD047}"/>
+    <workbookView minimized="1" xWindow="13720" yWindow="3680" windowWidth="27240" windowHeight="16440" xr2:uid="{E495CD70-E4E6-FC4E-AC78-5AE6C84CD047}"/>
   </bookViews>
   <sheets>
     <sheet name="NaCl-PuCl3" sheetId="2" r:id="rId1"/>
     <sheet name="PuCl3" sheetId="3" r:id="rId2"/>
     <sheet name="NaCl-33PuCl3" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -66,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2340,13 +2349,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79DF1C9-43A0-BE42-A5FB-E1F7E1545A51}">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -2363,7 +2372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <f>E3/SUM(D3:E3)</f>
         <v>0</v>
@@ -2383,7 +2392,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <f>E4/SUM(D4:E4)</f>
         <v>0.14285714285714285</v>
@@ -2403,7 +2412,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <f>E5/SUM(D5:E5)</f>
         <v>0.1951219512195122</v>
@@ -2424,7 +2433,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <f>E6/SUM(D6:E6)</f>
         <v>0.33333333333333331</v>
@@ -2445,7 +2454,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <f t="shared" ref="B7:B9" si="0">E7/SUM(D7:E7)</f>
         <v>0.35616438356164382</v>
@@ -2466,7 +2475,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -2487,7 +2496,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
@@ -2508,7 +2517,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <f>E10/SUM(D10:E10)</f>
         <v>0.8</v>
@@ -2529,7 +2538,7 @@
         <v>198.00000000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <f>E11/SUM(D11:E11)</f>
         <v>1</v>
@@ -2558,17 +2567,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F3CE6F-A0A5-CD41-97A4-719D12DD7AB8}">
   <dimension ref="B7:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -2588,7 +2597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>0.95</v>
       </c>
@@ -2610,7 +2619,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>1</v>
       </c>
@@ -2632,7 +2641,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>1.01</v>
       </c>
@@ -2654,7 +2663,7 @@
         <v>17.372</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>1.02</v>
       </c>
@@ -2676,7 +2685,7 @@
         <v>17.544</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>1.03</v>
       </c>
@@ -2698,7 +2707,7 @@
         <v>17.716000000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>1.05</v>
       </c>
@@ -2720,7 +2729,7 @@
         <v>18.059999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="F16">
         <f t="array" ref="F16:K16">IFERROR(LINEST(F9:F12,G9:G12^{1,2},TRUE,TRUE),"")</f>
         <v>1.5577347541011954E-5</v>
@@ -2741,7 +2750,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="6:8">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F18">
         <f>(-G16+SQRT((G16^2-4*F16*H16)))/2/F16</f>
         <v>6306.9346413443509</v>
@@ -2751,7 +2760,7 @@
         <v>5469.9464189334512</v>
       </c>
     </row>
-    <row r="23" spans="6:8">
+    <row r="23" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F23" s="2">
         <f t="array" ref="F23:H28">LINEST(F9:F12,G9:G12^{1,2},TRUE,TRUE)</f>
         <v>1.5577347541011954E-5</v>
@@ -2763,7 +2772,7 @@
         <v>537.39659707323221</v>
       </c>
     </row>
-    <row r="24" spans="6:8">
+    <row r="24" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F24">
         <v>3.5610463575640966E-6</v>
       </c>
@@ -2774,7 +2783,7 @@
         <v>100.88855282938543</v>
       </c>
     </row>
-    <row r="25" spans="6:8">
+    <row r="25" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F25">
         <v>0.99919982957099929</v>
       </c>
@@ -2785,7 +2794,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="6:8">
+    <row r="26" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F26">
         <v>624.366880702358</v>
       </c>
@@ -2796,7 +2805,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="6:8">
+    <row r="27" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F27">
         <v>38.75141836011813</v>
       </c>
@@ -2807,7 +2816,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="6:8">
+    <row r="28" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F28" t="e">
         <v>#N/A</v>
       </c>
@@ -2832,13 +2841,13 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -2858,7 +2867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>0.93</v>
       </c>
@@ -2880,7 +2889,7 @@
         <v>17.874443760000002</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>0.94</v>
       </c>
@@ -2902,7 +2911,7 @@
         <v>18.066642079999998</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>0.95</v>
       </c>
@@ -2924,7 +2933,7 @@
         <v>18.2588404</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>0.96</v>
       </c>
@@ -2946,7 +2955,7 @@
         <v>18.45103872</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>0.97</v>
       </c>
@@ -2968,7 +2977,7 @@
         <v>18.643237039999999</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>1</v>
       </c>
@@ -2990,7 +2999,7 @@
         <v>19.219832</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>1.05</v>
       </c>
@@ -3012,7 +3021,7 @@
         <v>20.1808236</v>
       </c>
     </row>
-    <row r="17" spans="5:7">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E17" s="2">
         <f t="array" ref="E17:G21">LINEST(F8:F12,G8:G12^{1,2},TRUE,TRUE)</f>
         <v>6.1883554879203012E-6</v>
@@ -3024,7 +3033,7 @@
         <v>312.05688590291743</v>
       </c>
     </row>
-    <row r="18" spans="5:7">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E18">
         <v>1.3917744141491537E-6</v>
       </c>
@@ -3035,7 +3044,7 @@
         <v>51.645110911233076</v>
       </c>
     </row>
-    <row r="19" spans="5:7">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E19">
         <v>0.99885024488902752</v>
       </c>
@@ -3046,7 +3055,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="5:7">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E20">
         <v>868.75042811867354</v>
       </c>
@@ -3057,7 +3066,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="5:7">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E21">
         <v>64.36447154589456</v>
       </c>
@@ -3068,7 +3077,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="5:7">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E24">
         <f>(-F17+SQRT((F17^2-4*E17*G17)))/2/E17</f>
         <v>8036.3791976846924</v>
